--- a/Vogel/VOGEL.xlsx
+++ b/Vogel/VOGEL.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\PL\Vogel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8CEA49-E336-4C99-957B-A6997E20C1AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA737B2C-B2DB-4416-A421-6CF86C1D3E75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1C47A26-AF7D-4ECB-B07C-C0B0F5F34B6B}"/>
+    <workbookView xWindow="1170" yWindow="-15300" windowWidth="17280" windowHeight="8970" xr2:uid="{C1C47A26-AF7D-4ECB-B07C-C0B0F5F34B6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Planilha1!$B$33:$F$57</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Planilha1!$B$38:$F$62</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Planilha1!$B$58:$F$58</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Planilha1!$H$33:$H$57</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Planilha1!$B$63:$F$63</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Planilha1!$H$38:$H$62</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -32,10 +32,10 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Planilha1!$B$60</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Planilha1!$B$65</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Planilha1!$B$29:$F$29</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Planilha1!$H$3:$H$27</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t xml:space="preserve">Angra dos Reis </t>
   </si>
@@ -180,13 +180,31 @@
   </si>
   <si>
     <t>Transporte (u.m)</t>
+  </si>
+  <si>
+    <t>melhor</t>
+  </si>
+  <si>
+    <t>alternativa</t>
+  </si>
+  <si>
+    <t>penalidade</t>
+  </si>
+  <si>
+    <t>Penalidade</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +212,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +319,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,9 +341,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D17EE-914E-4A08-821A-1BCB2EA89879}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,9 +678,18 @@
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
@@ -652,629 +699,1260 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="H2" s="8"/>
+      <c r="J2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="16">
+        <v>1087</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
         <v>27.65</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>35.4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>14.95</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>48.6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>47.5</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4">
+      <c r="G3" s="6"/>
+      <c r="H3" s="5">
         <v>289</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="J3">
+        <f>SMALL(B3:F3,1)</f>
+        <v>14.95</v>
+      </c>
+      <c r="K3">
+        <f>SMALL(B3:F3,2)</f>
+        <v>27.65</v>
+      </c>
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>12.7</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>21.7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>29.4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>42.6</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>47.9</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4">
+      <c r="G4" s="6"/>
+      <c r="H4" s="5">
         <v>335</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="J4">
+        <f t="shared" ref="J4:J27" si="0">SMALL(B4:F4,1)</f>
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K27" si="1">SMALL(B4:F4,2)</f>
+        <v>21.7</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L27" si="2">K4-J4</f>
+        <v>12.7</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="19">
         <v>29</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="18">
         <v>4.8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>26.4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>48.65</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>24.9</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4">
+      <c r="G5" s="6"/>
+      <c r="H5" s="5">
         <v>1087</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>24.9</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="2"/>
+        <v>20.099999999999998</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>23.8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>23.1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>15.15</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>44.3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>50</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4">
+      <c r="G6" s="6"/>
+      <c r="H6" s="5">
         <v>319</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>15.15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>23.1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>7.9500000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>25.75</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>18.3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>23.7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>26.75</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>41.85</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4">
+      <c r="G7" s="6"/>
+      <c r="H7" s="5">
         <v>268</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>23.7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>17.75</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>13.2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>20.45</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>26.1</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4">
+      <c r="G8" s="6"/>
+      <c r="H8" s="5">
         <v>314</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>20.95</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>28.7</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>8.25</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>33.75</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>48.5</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4">
+      <c r="G9" s="6"/>
+      <c r="H9" s="5">
         <v>812</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>20.95</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>28.6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>43.95</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>23.1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>48.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>30.1</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4">
+      <c r="G10" s="6"/>
+      <c r="H10" s="5">
         <v>1253</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>23.1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>28.6</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>29.05</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>14.7</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>29.85</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>39.200000000000003</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>55.85</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4">
+      <c r="G11" s="6"/>
+      <c r="H11" s="5">
         <v>276</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>14.7</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>29.05</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>14.350000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>30.6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>46.25</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>24.25</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>50.6</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>31.65</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4">
+      <c r="G12" s="6"/>
+      <c r="H12" s="5">
         <v>345</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>6.3500000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>22.3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>30</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>9.5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>43.1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>49.8</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4">
+      <c r="G13" s="6"/>
+      <c r="H13" s="5">
         <v>482</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>22.3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>22.05</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>29.8</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>9.25</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>42.85</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>47.6</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4">
+      <c r="G14" s="6"/>
+      <c r="H14" s="5">
         <v>831</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>22.05</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>30.05</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>45.45</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>24.65</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>50.05</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>19.3</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4">
+      <c r="G15" s="6"/>
+      <c r="H15" s="5">
         <v>630</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>19.3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>24.65</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>5.3499999999999979</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>25.8</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>41.2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>31.5</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>41.05</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>14</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4">
+      <c r="G16" s="6"/>
+      <c r="H16" s="5">
         <v>833</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>25.8</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>22.2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>29.25</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>9.1</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>42.8</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>49.5</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4">
+      <c r="G17" s="6"/>
+      <c r="H17" s="5">
         <v>1461</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>22.2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>13.1</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>27.65</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="R17" s="6">
+        <v>14.95</v>
+      </c>
+      <c r="S17" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="T17" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>30</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>35.75</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>25.15</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>50.1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>30.45</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4">
+      <c r="G18" s="6"/>
+      <c r="H18" s="5">
         <v>962</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>25.15</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>4.8500000000000014</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>21.7</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>29.4</v>
+      </c>
+      <c r="R18" s="6">
+        <v>9</v>
+      </c>
+      <c r="S18" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="T18" s="6">
+        <v>47.9</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>29.95</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>45</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>25.3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>49.9</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>30.35</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4">
+      <c r="G19" s="6"/>
+      <c r="H19" s="5">
         <v>605</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>25.3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>29.95</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>4.6499999999999986</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="18">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="R19" s="6">
+        <v>26.4</v>
+      </c>
+      <c r="S19" s="6">
+        <v>48.65</v>
+      </c>
+      <c r="T19" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="5">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>22.85</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>29</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>9.9</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>43.45</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>50.15</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4">
+      <c r="G20" s="6"/>
+      <c r="H20" s="5">
         <v>829</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>22.85</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>12.950000000000001</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>23.1</v>
+      </c>
+      <c r="R20" s="6">
+        <v>15.15</v>
+      </c>
+      <c r="S20" s="6">
+        <v>44.3</v>
+      </c>
+      <c r="T20" s="6">
+        <v>50</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>30.4</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>31.75</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>19.5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>50.35</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>32.450000000000003</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4">
+      <c r="G21" s="6"/>
+      <c r="H21" s="5">
         <v>572</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>30.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="6">
+        <v>25.75</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="R21" s="6">
+        <v>23.7</v>
+      </c>
+      <c r="S21" s="6">
+        <v>26.75</v>
+      </c>
+      <c r="T21" s="6">
+        <v>41.85</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>29.25</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>24</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <v>23.9</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>49.25</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>29.5</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4">
+      <c r="G22" s="6"/>
+      <c r="H22" s="5">
         <v>1959</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>23.9</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>17.75</v>
+      </c>
+      <c r="R22" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="S22" s="6">
+        <v>20.45</v>
+      </c>
+      <c r="T22" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>27.2</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>51</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>24.4</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>40.950000000000003</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <v>27.4</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4">
+      <c r="G23" s="6"/>
+      <c r="H23" s="5">
         <v>481</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>27.2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="6">
+        <v>20.95</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>28.7</v>
+      </c>
+      <c r="R23" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="S23" s="6">
+        <v>33.75</v>
+      </c>
+      <c r="T23" s="6">
+        <v>48.5</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="5">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>33.6</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>23.55</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>28.5</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>53.35</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>28.85</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4">
+      <c r="G24" s="6"/>
+      <c r="H24" s="5">
         <v>333</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>23.55</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>43.95</v>
+      </c>
+      <c r="R24" s="6">
+        <v>23.1</v>
+      </c>
+      <c r="S24" s="6">
+        <v>48.5</v>
+      </c>
+      <c r="T24" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="5">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>39.4</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <v>36.5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>32.9</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4">
+      <c r="G25" s="6"/>
+      <c r="H25" s="5">
         <v>998</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="6">
+        <v>29.05</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="R25" s="6">
+        <v>29.85</v>
+      </c>
+      <c r="S25" s="6">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="T25" s="6">
+        <v>55.85</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>25.45</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>17.600000000000001</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>22.8</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <v>42.45</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <v>52.9</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4">
+      <c r="G26" s="6"/>
+      <c r="H26" s="5">
         <v>390</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="6">
+        <v>30.6</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>46.25</v>
+      </c>
+      <c r="R26" s="6">
+        <v>24.25</v>
+      </c>
+      <c r="S26" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="T26" s="6">
+        <v>31.65</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>25.95</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <v>23.8</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="6">
         <v>42.15</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <v>52.75</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4">
+      <c r="G27" s="6"/>
+      <c r="H27" s="5">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>23.8</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>5.9000000000000021</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>30</v>
+      </c>
+      <c r="R27" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="S27" s="6">
+        <v>43.1</v>
+      </c>
+      <c r="T27" s="6">
+        <v>49.8</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="6">
+        <v>22.05</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>29.8</v>
+      </c>
+      <c r="R28" s="6">
+        <v>9.25</v>
+      </c>
+      <c r="S28" s="6">
+        <v>42.85</v>
+      </c>
+      <c r="T28" s="6">
+        <v>47.6</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="5">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1294,675 +1972,1184 @@
         <v>1700</v>
       </c>
       <c r="G29" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="O29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="6">
+        <v>30.05</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>45.45</v>
+      </c>
+      <c r="R29" s="6">
+        <v>24.65</v>
+      </c>
+      <c r="S29" s="6">
+        <v>50.05</v>
+      </c>
+      <c r="T29" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="5">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="O30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="R30" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="S30" s="6">
+        <v>41.05</v>
+      </c>
+      <c r="T30" s="6">
+        <v>14</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="5">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="O31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>29.25</v>
+      </c>
+      <c r="R31" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="S31" s="6">
+        <v>42.8</v>
+      </c>
+      <c r="T31" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="5">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <f>SMALL(B3:B27,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:F32" si="3">SMALL(C3:C27,1)</f>
+        <v>4.8</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>8.25</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>20.45</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="O32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>35.75</v>
+      </c>
+      <c r="R32" s="6">
+        <v>25.15</v>
+      </c>
+      <c r="S32" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="T32" s="6">
+        <v>30.45</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="5">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <f>SMALL(B4:B28,2)</f>
+        <v>20.95</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:F33" si="4">SMALL(C4:C28,2)</f>
+        <v>14.7</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>26.75</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="O33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="6">
+        <v>29.95</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>45</v>
+      </c>
+      <c r="R33" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="S33" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="T33" s="6">
+        <v>30.35</v>
+      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="5">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <f>B33-B32</f>
+        <v>19.95</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34" si="5">C33-C32</f>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34" si="6">D33-D32</f>
+        <v>0.75</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="7">E33-E32</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="8">F33-F32</f>
+        <v>9.1</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="O34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="6">
+        <v>22.85</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>29</v>
+      </c>
+      <c r="R34" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="S34" s="6">
+        <v>43.45</v>
+      </c>
+      <c r="T34" s="6">
+        <v>50.15</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="5">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>31.75</v>
+      </c>
+      <c r="R35" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="S35" s="6">
+        <v>50.35</v>
+      </c>
+      <c r="T35" s="6">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="U35" s="6"/>
+      <c r="V35" s="5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="O36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="6">
+        <v>29.25</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>24</v>
+      </c>
+      <c r="R36" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="S36" s="6">
+        <v>49.25</v>
+      </c>
+      <c r="T36" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="U36" s="6"/>
+      <c r="V36" s="5">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="H37" s="10"/>
+      <c r="O37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="6">
+        <v>27.2</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>51</v>
+      </c>
+      <c r="R37" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="S37" s="6">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="T37" s="6">
+        <v>27.4</v>
+      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="5">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>289</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f>SUM(B33:G33)</f>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>SUM(B38:G38)</f>
         <v>289</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="O38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>23.55</v>
+      </c>
+      <c r="R38" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="S38" s="6">
+        <v>53.35</v>
+      </c>
+      <c r="T38" s="6">
+        <v>28.85</v>
+      </c>
+      <c r="U38" s="6"/>
+      <c r="V38" s="5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>335</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ref="H34:H57" si="0">SUM(B34:G34)</f>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H62" si="9">SUM(B39:G39)</f>
         <v>335</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="O39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="6">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="R39" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="S39" s="6">
+        <v>32.9</v>
+      </c>
+      <c r="T39" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U39" s="6"/>
+      <c r="V39" s="5">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>1087</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="9"/>
         <v>1087</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="O40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="6">
+        <v>25.45</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="R40" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="S40" s="6">
+        <v>42.45</v>
+      </c>
+      <c r="T40" s="6">
+        <v>52.9</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="B41">
         <v>319</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="9"/>
         <v>319</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="O41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="6">
+        <v>25.95</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="R41" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="S41" s="6">
+        <v>42.15</v>
+      </c>
+      <c r="T41" s="6">
+        <v>52.75</v>
+      </c>
+      <c r="U41" s="6"/>
+      <c r="V41" s="5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>268</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="9"/>
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="B43">
         <v>314</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="9"/>
         <v>314</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="O43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>812</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="9"/>
         <v>812</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>774</v>
-      </c>
-      <c r="D40">
-        <v>479</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
+      <c r="B45">
         <v>1253</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="9"/>
+        <v>1253</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U45" s="11"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>276</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="O46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46">
+        <f>SMALL(P17:P41,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46:T46" si="10">SMALL(Q17:Q41,1)</f>
+        <v>4.8</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="10"/>
+        <v>8.25</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="10"/>
+        <v>20.45</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="10"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U46" s="11"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
+      <c r="B47">
         <v>345</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="9"/>
         <v>345</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="O47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47">
+        <f>SMALL(P18:P42,2)</f>
+        <v>20.95</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ref="Q47:T47" si="11">SMALL(Q18:Q42,2)</f>
+        <v>14.7</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
+      <c r="S47">
+        <f t="shared" si="11"/>
+        <v>26.75</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="U47" s="11"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>482</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="9"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="O48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48">
+        <f>P47-P46</f>
+        <v>19.95</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ref="Q48" si="12">Q47-Q46</f>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ref="R48" si="13">R47-R46</f>
+        <v>0.75</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ref="S48" si="14">S47-S46</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48" si="15">T47-T46</f>
+        <v>9.1</v>
+      </c>
+      <c r="U48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B44">
-        <v>608</v>
-      </c>
-      <c r="C44">
-        <v>223</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>831</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B45">
+      <c r="B50">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>523</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
         <v>630</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B46">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>654</v>
+      </c>
+      <c r="F51">
+        <v>179</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
         <v>833</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>833</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B47">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>1461</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <f>SUM(B47:G47)</f>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>SUM(B52:G52)</f>
         <v>1461</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B48">
+      <c r="B53">
         <v>962</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="9"/>
         <v>962</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B49">
+      <c r="B54">
         <v>605</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="9"/>
         <v>605</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B50">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>829</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="9"/>
         <v>829</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B51">
+      <c r="B56">
+        <v>399</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>173</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="9"/>
         <v>572</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>572</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>259</v>
-      </c>
-      <c r="F52">
+      <c r="B57">
+        <v>1959</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="9"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>481</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="9"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>333</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="9"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>998</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="9"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>237</v>
+      </c>
+      <c r="C61">
+        <v>153</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="9"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>251</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="9"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="2">
+        <f>SUM(B38:B62)</f>
+        <v>6500</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" ref="C63:F63" si="16">SUM(C38:C62)</f>
+        <v>2100</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="16"/>
+        <v>4400</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="16"/>
+        <v>2215</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="16"/>
         <v>1700</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>481</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>333</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>998</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>390</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>251</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="2">
-        <f>SUM(B33:B57)</f>
-        <v>6500</v>
-      </c>
-      <c r="C58" s="2">
-        <f t="shared" ref="C58:F58" si="1">SUM(C33:C57)</f>
-        <v>2100</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="1"/>
-        <v>4384</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="1"/>
-        <v>2231</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="1"/>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="11">
-        <f>SUMPRODUCT(B3:F27,B33:F57)</f>
-        <v>466213.40000000008</v>
+      <c r="B65" s="13">
+        <f>SUMPRODUCT(B3:F27,B38:F62)</f>
+        <v>347343.50000000006</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
